--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -574,6 +574,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical"/&gt;
     &lt;code value="active"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -6,16 +6,143 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="382">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.allergy</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.6-beta</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MHVallergy</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>VA MHV Allergy or Intolerance</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A profile on the AllergyIntolerance that declares how MHV will Create/Update in PGHD for allergy or intolerance.
+Given that MyHealtheVet has access to the medical record (Vista and Cerner), there should be logic keeping a patient from entering a duplicate allergy or intolerance. 
+* Derived off of US-Core Allergy
+* must be marked with MHV app tag
+* must point at the patient
+* must indicate patient is the asserter
+* may have recorder be the user (e.g. delegate)
+* must have clinicalStatus of active
+* may have type set to allergy or intolerance (default blank)
+* must have a recordedDate of the date entered
+* must have a onsetDateTime from the UI
+* must have a code.text or code.coding from a valueset from the UI
+* may have a category from the UI
+* may have a severity from the UI
+* must have a reaction.note or reaction.manifestation from the UI
+* may have a comments note from the UI
+* once created will or might have an id, versionId, lastUpdated, text, and identifier
+* DSTU2 uses slightly different element names (e.g., substance and onset) 
+</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -135,9 +262,6 @@
   </si>
   <si>
     <t>Mapping: MyHealtheVet mapping to FHIR/PGHD</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance</t>
   </si>
   <si>
     <t>Allergy
@@ -597,9 +721,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>AllergyIntolerance.verificationStatus</t>
@@ -1273,9 +1394,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1326,5116 +1616,5116 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>183</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>John Moehrke (himself)</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -75,31 +78,30 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A profile on the AllergyIntolerance that declares how MHV will Create/Update in PGHD for allergy or intolerance.
-Given that MyHealtheVet has access to the medical record (Vista and Cerner), there should be logic keeping a patient from entering a duplicate allergy or intolerance. 
-* Derived off of US-Core Allergy
-* must be marked with MHV app tag
-* must point at the patient
-* must indicate patient is the asserter
-* may have recorder be the user (e.g. delegate)
-* must have clinicalStatus of active
-* may have type set to allergy or intolerance (default blank)
-* must have a recordedDate of the date entered
-* must have a onsetDateTime from the UI
-* must have a code.text or code.coding from a valueset from the UI
-* may have a category from the UI
-* may have a severity from the UI
-* must have a reaction.note or reaction.manifestation from the UI
-* may have a comments note from the UI
-* once created will or might have an id, versionId, lastUpdated, text, and identifier
-* DSTU2 uses slightly different element names (e.g., substance and onset) 
-</t>
+    <t>A profile on the AllergyIntolerance that declares how MHV will Create/Update in PGHD for allergy or intolerance.
+Given that MyHealtheVet has access to the medical record (Vista and Cerner), there should be logic keeping a patient from entering a duplicate allergy or intolerance. 
+* Derived off of US-Core Allergy
+* must be marked with MHV app tag
+* must point at the patient
+* must indicate patient is the asserter
+* may have recorder be the user (e.g. delegate)
+* must have clinicalStatus of active
+* may have type set to allergy or intolerance (default blank)
+* must have a recordedDate of the date entered
+* must have a onsetDateTime from the UI
+* must have a code.text or code.coding from a valueset from the UI
+* may have a category from the UI
+* may have a severity from the UI
+* must have a reaction.note or reaction.manifestation from the UI
+* may have a comments note from the UI
+* once created will or might have an id, versionId, lastUpdated, text, and identifier
+* DSTU2 uses slightly different element names (e.g., substance and onset)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -247,9 +249,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -280,14 +279,7 @@
     <t>Allergy or Intolerance (generally: Risk of adverse reaction to a substance)</t>
   </si>
   <si>
-    <t>The US Core Allergies Profile is based upon the core FHIR AllergyIntolerance Resource and created to meet the 2015 Edition Common Clinical Data Set 'Medical allergies' requirements.</t>
-  </si>
-  <si>
-    <t>Substances include, but are not limited to: a therapeutic substance administered correctly at an appropriate dosage for the individual; food; material derived from plants or animals; or venom from insect stings.</t>
-  </si>
-  <si>
-    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
-ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
@@ -303,47 +295,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -394,10 +390,6 @@
   </si>
   <si>
     <t>AllergyIntolerance.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -714,9 +706,6 @@
 ait-2</t>
   </si>
   <si>
-    <t>AllergyIntolerance.status</t>
-  </si>
-  <si>
     <t>Observation ACT .inboundRelationship[typeCode=COMP].source[classCode=OBS, code="clinicalStatus", moodCode=EVN].value</t>
   </si>
   <si>
@@ -857,10 +846,7 @@
 The 'substanceExposureRisk' extension is available as a structured and more flexible alternative to the 'code' element for making positive or negative allergy or intolerance statements.  This extension provides the capability to make "no known allergy" (or "no risk of adverse reaction") statements regarding any coded substance/product (including cases when a pre-coordinated "no allergy to x" concept for that substance/product does not exist).  If the 'substanceExposureRisk' extension is present, the AllergyIntolerance.code element SHALL be omitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-allergy-substance</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.substance</t>
+    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1186.8</t>
   </si>
   <si>
     <t>substance/product:@@ -1394,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1470,37 +1456,41 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1512,48 +1502,54 @@
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1573,16 +1569,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1591,154 +1587,150 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.01953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.51953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.15234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.12109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="45.5546875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="45.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AN1" t="s" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
@@ -1770,7 +1762,7 @@
         <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -1820,7 +1812,7 @@
         <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>77</v>
@@ -1832,27 +1824,24 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1863,28 +1852,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1934,13 +1923,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -1958,15 +1947,12 @@
         <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN3" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1977,7 +1963,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>79</v>
@@ -1986,16 +1972,16 @@
         <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2046,19 +2032,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2070,15 +2056,12 @@
         <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN4" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2089,7 +2072,7 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>79</v>
@@ -2101,13 +2084,13 @@
         <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2158,43 +2141,40 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN5" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2213,16 +2193,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2260,19 +2240,19 @@
         <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
@@ -2284,27 +2264,24 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN6" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2315,28 +2292,28 @@
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2386,19 +2363,19 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>79</v>
@@ -2410,15 +2387,12 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN7" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2429,7 +2403,7 @@
         <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>79</v>
@@ -2438,19 +2412,19 @@
         <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2500,19 +2474,19 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>79</v>
@@ -2524,15 +2498,12 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN8" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2543,7 +2514,7 @@
         <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2552,19 +2523,19 @@
         <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2614,19 +2585,19 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -2638,15 +2609,12 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN9" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2666,19 +2634,19 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2728,7 +2696,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2740,7 +2708,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -2752,15 +2720,12 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN10" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2780,19 +2745,19 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2818,31 +2783,31 @@
         <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2854,7 +2819,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -2866,15 +2831,12 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN11" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2882,10 +2844,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
@@ -2894,19 +2856,19 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2917,46 +2879,46 @@
         <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2968,7 +2930,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -2980,15 +2942,12 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2999,28 +2958,28 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3070,19 +3029,19 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -3094,15 +3053,12 @@
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN13" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3113,7 +3069,7 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3125,16 +3081,16 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3160,43 +3116,43 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -3208,26 +3164,23 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN14" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3239,16 +3192,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3298,43 +3251,40 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN15" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3353,16 +3303,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3412,7 +3362,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3427,28 +3377,25 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN16" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3467,16 +3414,16 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3526,7 +3473,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3538,31 +3485,28 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN17" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3575,25 +3519,25 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3642,7 +3586,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3654,27 +3598,24 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN18" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3694,22 +3635,22 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -3758,7 +3699,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3770,27 +3711,24 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN19" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3801,28 +3739,28 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3833,7 +3771,7 @@
         <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>79</v>
@@ -3848,61 +3786,58 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3910,31 +3845,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3960,11 +3895,11 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
@@ -3982,50 +3917,47 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4034,19 +3966,19 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4072,74 +4004,71 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -4148,19 +4077,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4186,13 +4115,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4210,7 +4139,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4222,31 +4151,28 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4262,19 +4188,19 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4300,95 +4226,92 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4414,90 +4337,87 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4548,39 +4468,36 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4603,13 +4520,13 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4660,39 +4577,36 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4700,10 +4614,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -4715,13 +4629,13 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4760,62 +4674,59 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN28" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -4827,13 +4738,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4884,39 +4795,36 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4927,7 +4835,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -4939,13 +4847,13 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4996,50 +4904,47 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5051,13 +4956,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5108,50 +5013,47 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5160,19 +5062,19 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5222,39 +5124,36 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5277,16 +5176,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5336,39 +5235,36 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5391,16 +5287,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5450,7 +5346,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5462,27 +5358,24 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5490,13 +5383,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5505,13 +5398,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5562,7 +5455,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5574,27 +5467,24 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5605,7 +5495,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5617,13 +5507,13 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5674,43 +5564,40 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5729,16 +5616,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5788,7 +5675,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5800,31 +5687,28 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5837,25 +5721,25 @@
         <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -5904,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5916,27 +5800,24 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5959,16 +5840,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5994,13 +5875,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6018,53 +5899,50 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6073,16 +5951,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6108,11 +5986,11 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6130,10 +6008,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6142,38 +6020,35 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6185,16 +6060,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6244,39 +6119,36 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6299,13 +6171,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6356,39 +6228,36 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6399,7 +6268,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6411,16 +6280,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6446,13 +6315,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -6470,39 +6339,36 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6525,16 +6391,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6560,13 +6426,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -6584,39 +6450,36 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6639,16 +6502,16 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6698,7 +6561,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6710,26 +6573,23 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN45">
+  <autoFilter ref="A1:AM45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -943,6 +946,9 @@
   </si>
   <si>
     <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.onset[x]:onsetDateTime</t>
   </si>
   <si>
     <t>onsetDateTime</t>
@@ -1559,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1569,44 +1575,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.24609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="120.87890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.12109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="45.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.12109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="45.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1727,19 +1733,22 @@
       <c r="AM1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>77</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
@@ -1747,13 +1756,13 @@
         <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
         <v>80</v>
@@ -1762,60 +1771,60 @@
         <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>78</v>
@@ -1824,44 +1833,47 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>87</v>
@@ -1875,107 +1887,110 @@
       <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>94</v>
@@ -1983,108 +1998,111 @@
       <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>100</v>
@@ -2092,94 +2110,97 @@
       <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>78</v>
       </c>
@@ -2187,13 +2208,13 @@
         <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>107</v>
@@ -2204,58 +2225,58 @@
       <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2264,50 +2285,53 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>117</v>
@@ -2315,107 +2339,110 @@
       <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>122</v>
@@ -2426,107 +2453,110 @@
       <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>128</v>
@@ -2537,93 +2567,96 @@
       <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2631,13 +2664,13 @@
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>134</v>
@@ -2648,58 +2681,58 @@
       <c r="M10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2708,33 +2741,36 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2742,13 +2778,13 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>140</v>
@@ -2759,31 +2795,31 @@
       <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
         <v>144</v>
@@ -2792,25 +2828,25 @@
         <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2819,50 +2855,53 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>149</v>
@@ -2870,31 +2909,31 @@
       <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>153</v>
@@ -2903,25 +2942,25 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2930,50 +2969,53 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>157</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
@@ -2981,107 +3023,110 @@
       <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>164</v>
@@ -3092,31 +3137,31 @@
       <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>168</v>
@@ -3125,74 +3170,77 @@
         <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>174</v>
@@ -3203,93 +3251,96 @@
       <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3297,13 +3348,13 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>182</v>
@@ -3314,58 +3365,58 @@
       <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3374,33 +3425,36 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3408,75 +3462,75 @@
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3485,33 +3539,36 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3519,77 +3576,77 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3598,33 +3655,36 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3632,13 +3692,13 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>197</v>
@@ -3653,56 +3713,56 @@
         <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3711,10 +3771,10 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>202</v>
@@ -3723,35 +3783,38 @@
         <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>206</v>
@@ -3762,108 +3825,111 @@
       <c r="M20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>211</v>
       </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>217</v>
@@ -3871,108 +3937,111 @@
       <c r="M21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="B22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>224</v>
@@ -3980,70 +4049,70 @@
       <c r="M22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="Y22" t="s" s="2">
         <v>227</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>229</v>
@@ -4053,37 +4122,40 @@
       </c>
       <c r="AM22" t="s" s="2">
         <v>231</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>232</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="B23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>235</v>
@@ -4091,58 +4163,58 @@
       <c r="M23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>238</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4151,50 +4223,53 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>241</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>245</v>
@@ -4202,70 +4277,70 @@
       <c r="M24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>250</v>
@@ -4274,38 +4349,41 @@
         <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="B25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>255</v>
@@ -4313,68 +4391,68 @@
       <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>259</v>
@@ -4385,33 +4463,36 @@
       <c r="AM25" t="s" s="2">
         <v>261</v>
       </c>
+      <c r="AN25" t="s" s="2">
+        <v>262</v>
+      </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>85</v>
-      </c>
+      <c r="B26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>265</v>
@@ -4419,71 +4500,71 @@
       <c r="L26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>268</v>
@@ -4493,34 +4574,37 @@
       </c>
       <c r="AM26" t="s" s="2">
         <v>270</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>271</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>273</v>
@@ -4528,108 +4612,111 @@
       <c r="L27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>279</v>
@@ -4637,108 +4724,111 @@
       <c r="L28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>279</v>
@@ -4746,534 +4836,549 @@
       <c r="L29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J32" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>270</v>
+        <v>312</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>271</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5281,75 +5386,75 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5358,107 +5463,110 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>324</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5467,47 +5575,50 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>100</v>
@@ -5515,94 +5626,97 @@
       <c r="L36" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5610,13 +5724,13 @@
         <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>107</v>
@@ -5627,58 +5741,58 @@
       <c r="M37" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5687,33 +5801,36 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5721,77 +5838,77 @@
         <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5800,771 +5917,792 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>341</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X40" s="2"/>
-      <c r="Y40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>351</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>368</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>368</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6573,23 +6711,26 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AN45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -277,6 +277,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Allergy or Intolerance (generally: Risk of adverse reaction to a substance)</t>
@@ -1765,16 +1769,16 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1839,7 +1843,7 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>80</v>
@@ -1848,15 +1852,15 @@
         <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1867,7 +1871,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -1876,19 +1880,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1938,13 +1942,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -1967,10 +1971,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1981,7 +1985,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -1990,16 +1994,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2050,19 +2054,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2079,10 +2083,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2093,7 +2097,7 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
@@ -2105,13 +2109,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2162,13 +2166,13 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -2177,7 +2181,7 @@
         <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -2191,14 +2195,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2217,16 +2221,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2264,19 +2268,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2288,10 +2292,10 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -2305,10 +2309,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2319,7 +2323,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2328,19 +2332,19 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2390,19 +2394,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2419,10 +2423,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2433,7 +2437,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2442,19 +2446,19 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2504,19 +2508,19 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2533,10 +2537,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2547,7 +2551,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
@@ -2556,19 +2560,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2618,19 +2622,19 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2647,10 +2651,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2670,19 +2674,19 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2732,7 +2736,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2744,7 +2748,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2761,10 +2765,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2784,19 +2788,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2822,13 +2826,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -2846,7 +2850,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2858,7 +2862,7 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -2875,10 +2879,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2886,10 +2890,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -2898,19 +2902,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2921,7 +2925,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>80</v>
@@ -2936,13 +2940,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -2960,7 +2964,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2972,7 +2976,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -2984,15 +2988,15 @@
         <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3003,28 +3007,28 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3074,19 +3078,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3103,10 +3107,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3117,7 +3121,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3129,16 +3133,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3164,13 +3168,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3188,19 +3192,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3217,21 +3221,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3243,16 +3247,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3302,22 +3306,22 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3331,14 +3335,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3357,16 +3361,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3416,7 +3420,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3431,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3445,14 +3449,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3471,16 +3475,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3530,7 +3534,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3542,10 +3546,10 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3559,14 +3563,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3579,25 +3583,25 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3646,7 +3650,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3658,10 +3662,10 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -3675,10 +3679,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3698,22 +3702,22 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3762,7 +3766,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3774,16 +3778,16 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -3791,10 +3795,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3805,28 +3809,28 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3837,7 +3841,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -3852,11 +3856,11 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -3874,25 +3878,25 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -3903,10 +3907,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3914,31 +3918,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3964,11 +3968,11 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -3986,25 +3990,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4015,21 +4019,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4038,19 +4042,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4076,13 +4080,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4100,50 +4104,50 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4152,19 +4156,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4190,13 +4194,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4214,7 +4218,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4226,31 +4230,31 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4266,19 +4270,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4304,13 +4308,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4328,28 +4332,28 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4357,42 +4361,42 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4418,11 +4422,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4440,68 +4444,68 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4552,39 +4556,39 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4607,13 +4611,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4664,25 +4668,25 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -4693,10 +4697,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4704,10 +4708,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4719,13 +4723,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4764,35 +4768,35 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -4803,23 +4807,23 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4831,13 +4835,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4888,39 +4892,39 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4931,7 +4935,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4943,13 +4947,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5000,50 +5004,50 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5055,13 +5059,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5112,50 +5116,50 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5164,19 +5168,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5226,39 +5230,39 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5281,16 +5285,16 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5340,22 +5344,22 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5369,10 +5373,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5395,16 +5399,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5454,7 +5458,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5466,10 +5470,10 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5478,15 +5482,15 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5494,13 +5498,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -5509,13 +5513,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5566,7 +5570,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5578,10 +5582,10 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5595,10 +5599,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5609,7 +5613,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5621,13 +5625,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5678,13 +5682,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5693,7 +5697,7 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -5707,14 +5711,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5733,16 +5737,16 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5792,7 +5796,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5804,10 +5808,10 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -5821,14 +5825,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5841,25 +5845,25 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5908,7 +5912,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5920,10 +5924,10 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -5937,10 +5941,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5963,16 +5967,16 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5998,13 +6002,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6022,22 +6026,22 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6051,24 +6055,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6077,16 +6081,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6112,11 +6116,11 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6134,10 +6138,10 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6146,38 +6150,38 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6189,16 +6193,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6248,39 +6252,39 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6303,13 +6307,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6360,28 +6364,28 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6389,10 +6393,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6403,7 +6407,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6415,16 +6419,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6450,13 +6454,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6474,22 +6478,22 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6498,15 +6502,15 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6529,16 +6533,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6564,13 +6568,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6588,22 +6592,22 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -6617,10 +6621,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6643,16 +6647,16 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6702,7 +6706,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6714,10 +6718,10 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the AllergyIntolerance that declares how MHV will Create/Update in PGHD for allergy or intolerance.
+    <t>A profile on the AllergyIntolerance that declares how MHV will Create in PGHD for allergy or intolerance.
 Given that MyHealtheVet has access to the medical record (Vista and Cerner), there should be logic keeping a patient from entering a duplicate allergy or intolerance. 
 * Derived off of US-Core Allergy
 * must be marked with MHV app tag

--- a/docs/StructureDefinition-VA.MHV.allergy.xlsx
+++ b/docs/StructureDefinition-VA.MHV.allergy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -289,6 +289,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>ait-1:AllergyIntolerance.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').exists() or clinicalStatus.exists()}
+ait-2:AllergyIntolerance.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system = 'http://terminology.hl7.org/CodeSystem/allergyintolerance-verification' and code = 'entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
@@ -440,7 +444,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -460,7 +464,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1363,10 +1367,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1840,10 +1844,10 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>80</v>
@@ -1852,15 +1856,15 @@
         <v>80</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1871,7 +1875,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -1880,19 +1884,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1942,13 +1946,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -1971,10 +1975,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1985,7 +1989,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -1994,16 +1998,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2054,19 +2058,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2083,10 +2087,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2097,7 +2101,7 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
@@ -2109,13 +2113,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2166,13 +2170,13 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -2181,7 +2185,7 @@
         <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -2195,14 +2199,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2221,16 +2225,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2268,19 +2272,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2292,10 +2296,10 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -2309,10 +2313,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2323,7 +2327,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2332,19 +2336,19 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2394,19 +2398,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2423,10 +2427,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2437,7 +2441,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2446,19 +2450,19 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2508,19 +2512,19 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2537,10 +2541,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2551,7 +2555,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
@@ -2560,19 +2564,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2622,19 +2626,19 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2651,10 +2655,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2674,19 +2678,19 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2736,7 +2740,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2748,7 +2752,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2765,10 +2769,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2788,19 +2792,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2826,13 +2830,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -2850,7 +2854,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2862,7 +2866,7 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -2879,10 +2883,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2890,10 +2894,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -2902,19 +2906,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2925,7 +2929,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>80</v>
@@ -2940,13 +2944,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -2964,7 +2968,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2976,7 +2980,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -2988,15 +2992,15 @@
         <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3007,28 +3011,28 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3078,19 +3082,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3107,10 +3111,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3121,7 +3125,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3133,16 +3137,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3168,13 +3172,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3192,19 +3196,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3221,21 +3225,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3247,16 +3251,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3306,22 +3310,22 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3335,14 +3339,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3361,16 +3365,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3420,7 +3424,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3435,7 +3439,7 @@
         <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3449,14 +3453,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3475,16 +3479,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3534,7 +3538,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3546,10 +3550,10 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3563,14 +3567,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3583,25 +3587,25 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3650,7 +3654,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3662,10 +3666,10 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -3679,10 +3683,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3702,22 +3706,22 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3766,7 +3770,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3778,16 +3782,16 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -3795,10 +3799,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3809,28 +3813,28 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3841,7 +3845,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -3856,11 +3860,11 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -3878,25 +3882,25 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -3907,10 +3911,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3918,31 +3922,31 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3968,11 +3972,11 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -3990,25 +3994,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4019,21 +4023,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4042,19 +4046,19 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4080,13 +4084,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4104,50 +4108,50 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4156,19 +4160,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4194,13 +4198,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4218,7 +4222,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4230,31 +4234,31 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4270,19 +4274,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4308,13 +4312,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4332,28 +4336,28 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4361,42 +4365,42 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4422,11 +4426,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4444,68 +4448,68 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4556,39 +4560,39 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4611,13 +4615,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4668,25 +4672,25 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -4697,10 +4701,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4708,10 +4712,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -4723,13 +4727,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4768,35 +4772,35 @@
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -4807,23 +4811,23 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4835,13 +4839,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4892,39 +4896,39 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4935,7 +4939,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -4947,13 +4951,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5004,50 +5008,50 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5059,13 +5063,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5116,50 +5120,50 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5168,19 +5172,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5230,39 +5234,39 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5285,16 +5289,16 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5344,22 +5348,22 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5373,10 +5377,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5399,16 +5403,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5458,7 +5462,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5470,10 +5474,10 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5482,15 +5486,15 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5498,13 +5502,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -5513,13 +5517,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5570,7 +5574,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5582,10 +5586,10 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5599,10 +5603,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5613,7 +5617,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5625,13 +5629,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5682,13 +5686,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5701,7 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -5711,14 +5715,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5737,16 +5741,16 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5796,7 +5800,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5808,10 +5812,10 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -5825,14 +5829,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5845,25 +5849,25 @@
         <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -5912,7 +5916,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5924,10 +5928,10 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -5941,10 +5945,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5967,16 +5971,16 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6002,13 +6006,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6026,22 +6030,22 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6055,24 +6059,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>80</v>
@@ -6081,16 +6085,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6116,11 +6120,11 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6138,10 +6142,10 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6150,38 +6154,38 @@
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6193,16 +6197,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6252,39 +6256,39 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6307,13 +6311,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6364,28 +6368,28 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6393,10 +6397,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6407,7 +6411,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -6419,16 +6423,16 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6454,13 +6458,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -6478,22 +6482,22 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6502,15 +6506,15 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6533,16 +6537,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6568,13 +6572,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -6592,22 +6596,22 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -6621,10 +6625,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6647,16 +6651,16 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6706,7 +6710,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6718,10 +6722,10 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
